--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,11 +694,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.811436" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.733194" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.495875" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.098975" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.70135" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.622326" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.20872" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.157732" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.991763" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
